--- a/src/test/testdata/FormTestData.xlsx
+++ b/src/test/testdata/FormTestData.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{6C8EF6D3-CF5E-4111-9DE4-392032D82EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{DBDA3FFA-C3DC-4AE6-AFDE-0AFF5B4BE2AC}"/>
+    <workbookView xWindow="10140" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{DBDA3FFA-C3DC-4AE6-AFDE-0AFF5B4BE2AC}"/>
   </bookViews>
   <sheets>
     <sheet name="FormTestData" sheetId="1" r:id="rId1"/>
@@ -768,8 +768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4599607-550D-474C-8FC5-2B6A3C73DB3D}">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="80" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/testdata/FormTestData.xlsx
+++ b/src/test/testdata/FormTestData.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29108"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cognizantonline-my.sharepoint.com/personal/2406732_cognizant_com/Documents/Desktop/IdentifyCourses/IdentifyCourses/src/test/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C8EF6D3-CF5E-4111-9DE4-392032D82EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="8_{6C8EF6D3-CF5E-4111-9DE4-392032D82EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54239893-FAC9-4730-8CCC-52802C3B69FC}"/>
   <bookViews>
-    <workbookView xWindow="10140" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{DBDA3FFA-C3DC-4AE6-AFDE-0AFF5B4BE2AC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{DBDA3FFA-C3DC-4AE6-AFDE-0AFF5B4BE2AC}"/>
   </bookViews>
   <sheets>
     <sheet name="FormTestData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="123">
   <si>
     <t xml:space="preserve"> First Name</t>
   </si>
@@ -56,12 +56,12 @@
     <t>Job Title</t>
   </si>
   <si>
+    <t>Company Name</t>
+  </si>
+  <si>
     <t>Company Size</t>
   </si>
   <si>
-    <t>Company Name</t>
-  </si>
-  <si>
     <t>Business Needs</t>
   </si>
   <si>
@@ -77,141 +77,285 @@
     <t>Expected No. of Learners</t>
   </si>
   <si>
+    <t>Job Role</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Institution Type</t>
+  </si>
+  <si>
     <t>John</t>
   </si>
   <si>
+    <t>Wick</t>
+  </si>
+  <si>
+    <t>john.wick@google.com</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>Operations Manager</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>1-500</t>
+  </si>
+  <si>
+    <t>Get in touch with Sales</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Chhattisgarh</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>5-25</t>
+  </si>
+  <si>
     <t>Barney</t>
   </si>
   <si>
+    <t>Stinson</t>
+  </si>
+  <si>
+    <t>barney.stinson@iit.com</t>
+  </si>
+  <si>
+    <t>College/University</t>
+  </si>
+  <si>
+    <t>Indian Institute of Technology</t>
+  </si>
+  <si>
+    <t>501-1000</t>
+  </si>
+  <si>
+    <t>Existing customer support</t>
+  </si>
+  <si>
+    <t>Andhra Pradesh</t>
+  </si>
+  <si>
+    <t>Registrar</t>
+  </si>
+  <si>
+    <t>Career Services</t>
+  </si>
+  <si>
+    <t>2 Year College</t>
+  </si>
+  <si>
+    <t>Theodore</t>
+  </si>
+  <si>
+    <t>Mosby</t>
+  </si>
+  <si>
+    <t>theodore.mosby@isro.com</t>
+  </si>
+  <si>
+    <t>Government</t>
+  </si>
+  <si>
+    <t>Engineering Assitant</t>
+  </si>
+  <si>
+    <t>DRDO</t>
+  </si>
+  <si>
+    <t>1001-5000</t>
+  </si>
+  <si>
+    <t>Government Employee Upskilling</t>
+  </si>
+  <si>
+    <t>Telangana</t>
+  </si>
+  <si>
+    <t>101-500</t>
+  </si>
+  <si>
     <t>Marshal</t>
   </si>
   <si>
-    <t>Theodore</t>
+    <t>Mathers</t>
+  </si>
+  <si>
+    <t>marshal.mathers@unicef.com</t>
+  </si>
+  <si>
+    <t>Non-Profit</t>
+  </si>
+  <si>
+    <t>UNICEF</t>
+  </si>
+  <si>
+    <t>5001-15000</t>
+  </si>
+  <si>
+    <t>Learner Support</t>
+  </si>
+  <si>
+    <t>Karnataka</t>
+  </si>
+  <si>
+    <t>National Programme Officer</t>
   </si>
   <si>
     <t>Ross</t>
   </si>
   <si>
+    <t>Geller</t>
+  </si>
+  <si>
+    <t>ross.geller@google.com</t>
+  </si>
+  <si>
+    <t>Software Engineer</t>
+  </si>
+  <si>
+    <t>15001+</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Kerala</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.</t>
+  </si>
+  <si>
     <t>Joey</t>
   </si>
   <si>
+    <t>Erickson</t>
+  </si>
+  <si>
+    <t>joey.erickson@google.com</t>
+  </si>
+  <si>
+    <t>Graphic Designer</t>
+  </si>
+  <si>
+    <t>Tamil Nadu</t>
+  </si>
+  <si>
     <t>Chandler</t>
   </si>
   <si>
+    <t>Bing</t>
+  </si>
+  <si>
+    <t>chandler.bing@iit.com</t>
+  </si>
+  <si>
+    <t>Madhya Pradesh</t>
+  </si>
+  <si>
+    <t>Director</t>
+  </si>
+  <si>
+    <t>Student Affairs</t>
+  </si>
+  <si>
+    <t>University/4 Year College</t>
+  </si>
+  <si>
     <t>Andy</t>
   </si>
   <si>
+    <t>Samberg</t>
+  </si>
+  <si>
+    <t>andy.samberg@iit.com</t>
+  </si>
+  <si>
+    <t>Courses for myself</t>
+  </si>
+  <si>
+    <t>Rajasthan</t>
+  </si>
+  <si>
+    <t>Consultant</t>
+  </si>
+  <si>
+    <t>Executive Leadership</t>
+  </si>
+  <si>
+    <t>Ministry of Education</t>
+  </si>
+  <si>
     <t>Jake</t>
   </si>
   <si>
+    <t>Peralta</t>
+  </si>
+  <si>
+    <t>jake.peralta@drdo.com</t>
+  </si>
+  <si>
+    <t>Junior Research Fellow</t>
+  </si>
+  <si>
+    <t>Maharashtra</t>
+  </si>
+  <si>
     <t>Charles</t>
   </si>
   <si>
+    <t>Boyle</t>
+  </si>
+  <si>
+    <t>charles.boyle@drdo.com</t>
+  </si>
+  <si>
+    <t>Security Assistant</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
     <t>Raymond</t>
   </si>
   <si>
-    <t>Wick</t>
-  </si>
-  <si>
-    <t>Stinson</t>
-  </si>
-  <si>
-    <t>Mosby</t>
-  </si>
-  <si>
-    <t>Mathers</t>
-  </si>
-  <si>
-    <t>Geller</t>
-  </si>
-  <si>
-    <t>Erickson</t>
-  </si>
-  <si>
-    <t>Bing</t>
-  </si>
-  <si>
-    <t>Samberg</t>
-  </si>
-  <si>
-    <t>Peralta</t>
-  </si>
-  <si>
-    <t>Boyle</t>
-  </si>
-  <si>
     <t>Holt</t>
   </si>
   <si>
+    <t>raymond.holt@unicef.com</t>
+  </si>
+  <si>
+    <t>Health Officer</t>
+  </si>
+  <si>
+    <t>Haryana</t>
+  </si>
+  <si>
     <t>Ethan</t>
   </si>
   <si>
     <t>Hunt</t>
   </si>
   <si>
-    <t>john.wick@google.com</t>
-  </si>
-  <si>
-    <t>ross.geller@google.com</t>
-  </si>
-  <si>
-    <t>joey.erickson@google.com</t>
-  </si>
-  <si>
-    <t>Job Role</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Chhattisgarh</t>
-  </si>
-  <si>
-    <t>Andhra Pradesh</t>
-  </si>
-  <si>
-    <t>Telangana</t>
-  </si>
-  <si>
-    <t>Karnataka</t>
-  </si>
-  <si>
-    <t>Kerala</t>
-  </si>
-  <si>
-    <t>Tamil Nadu</t>
-  </si>
-  <si>
-    <t>Madhya Pradesh</t>
-  </si>
-  <si>
-    <t>Rajasthan</t>
-  </si>
-  <si>
-    <t>Maharashtra</t>
-  </si>
-  <si>
-    <t>Delhi</t>
-  </si>
-  <si>
-    <t>Haryana</t>
+    <t>ethan.hunt@unicef.com</t>
+  </si>
+  <si>
+    <t>Child Protection Specialist</t>
   </si>
   <si>
     <t>West Bengal</t>
   </si>
   <si>
-    <t>Business</t>
-  </si>
-  <si>
-    <t>College</t>
-  </si>
-  <si>
-    <t>Government</t>
-  </si>
-  <si>
-    <t>Non-Profit</t>
-  </si>
-  <si>
     <t>Walter</t>
   </si>
   <si>
@@ -221,161 +365,53 @@
     <t>walter.white@google.com</t>
   </si>
   <si>
-    <t>Operations Manager</t>
-  </si>
-  <si>
-    <t>Software Engineer</t>
-  </si>
-  <si>
-    <t>Graphic Designer</t>
+    <t>adfafdafaf</t>
   </si>
   <si>
     <t>SEO Specialist</t>
   </si>
   <si>
-    <t>Google</t>
-  </si>
-  <si>
-    <t>Indian Institute of Technology</t>
-  </si>
-  <si>
-    <t>andy.samberg@iit.com</t>
-  </si>
-  <si>
-    <t>chandler.bing@iit.com</t>
-  </si>
-  <si>
-    <t>barney.stinson@iit.com</t>
-  </si>
-  <si>
-    <t>jake.peralta@drdo.com</t>
-  </si>
-  <si>
-    <t>charles.boyle@drdo.com</t>
-  </si>
-  <si>
-    <t>theodore.mosby@isro.com</t>
-  </si>
-  <si>
-    <t>marshal.mathers@unicef.com</t>
-  </si>
-  <si>
-    <t>raymond.holt@unicef.com</t>
-  </si>
-  <si>
-    <t>ethan.hunt@unicef.com</t>
-  </si>
-  <si>
-    <t>UNICEF</t>
-  </si>
-  <si>
-    <t>DRDO</t>
-  </si>
-  <si>
-    <t>Institution Type</t>
-  </si>
-  <si>
-    <t>Junior Research Fellow</t>
-  </si>
-  <si>
-    <t>Engineering Assitant</t>
-  </si>
-  <si>
-    <t>Security Assistant</t>
-  </si>
-  <si>
-    <t>Health Officer</t>
-  </si>
-  <si>
-    <t>Child Protection Specialist</t>
-  </si>
-  <si>
-    <t>National Programme Officer</t>
-  </si>
-  <si>
-    <t>1-500</t>
-  </si>
-  <si>
-    <t>501-1000</t>
-  </si>
-  <si>
-    <t>1001-5000</t>
-  </si>
-  <si>
-    <t>5001-15000</t>
-  </si>
-  <si>
-    <t>15001+</t>
-  </si>
-  <si>
     <t>Orissa</t>
   </si>
   <si>
-    <t>Get in touch with Sales</t>
-  </si>
-  <si>
-    <t>Existing customer support</t>
-  </si>
-  <si>
-    <t>Learner Support</t>
-  </si>
-  <si>
-    <t>Courses for myself</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Government Employee Upskilling</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>5-25</t>
-  </si>
-  <si>
-    <t>101-500</t>
-  </si>
-  <si>
-    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.</t>
-  </si>
-  <si>
-    <t>Registrar</t>
-  </si>
-  <si>
-    <t>Career Services</t>
-  </si>
-  <si>
-    <t>Department</t>
-  </si>
-  <si>
-    <t>Director</t>
-  </si>
-  <si>
-    <t>Student Affairs</t>
-  </si>
-  <si>
-    <t>Dean</t>
-  </si>
-  <si>
-    <t>Executive Leadership</t>
-  </si>
-  <si>
-    <t>2 Year College</t>
-  </si>
-  <si>
-    <t>University/4 Year College</t>
-  </si>
-  <si>
-    <t>Ministry of Education</t>
+    <t xml:space="preserve">Jesse </t>
+  </si>
+  <si>
+    <t>Pinkman</t>
+  </si>
+  <si>
+    <t>jesse.pinkman</t>
+  </si>
+  <si>
+    <t>Bihar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Student </t>
+  </si>
+  <si>
+    <t>Continuing Education</t>
+  </si>
+  <si>
+    <t>Graduate or Professional School</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saul </t>
+  </si>
+  <si>
+    <t>Goodman</t>
+  </si>
+  <si>
+    <t>saul.goodman@unicef.com</t>
+  </si>
+  <si>
+    <t>Jharkhand</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -766,22 +802,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4599607-550D-474C-8FC5-2B6A3C73DB3D}">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="80" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" topLeftCell="O10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="22.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="31.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
     <col min="7" max="7" width="28" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
     <col min="9" max="9" width="32.140625" customWidth="1"/>
     <col min="13" max="13" width="22.85546875" style="3"/>
+    <col min="16" max="16" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -801,10 +840,10 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
         <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
       </c>
       <c r="I1" t="s">
         <v>8</v>
@@ -822,663 +861,763 @@
         <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D2">
         <v>9876543221</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="L2" t="s">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="N2" t="s">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="P2" t="s">
-        <v>97</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="D3">
         <v>3456789876</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="I3" t="s">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="K3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L3" t="s">
-        <v>97</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="N3" t="s">
-        <v>101</v>
-      </c>
-      <c r="O3" t="s">
-        <v>102</v>
-      </c>
-      <c r="P3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="D4">
         <v>5676567687</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="G4" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="H4" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="I4" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="J4" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="K4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="L4" t="s">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="N4" t="s">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="P4" t="s">
-        <v>97</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="D5">
         <v>9876543456</v>
       </c>
       <c r="E5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" t="s">
         <v>57</v>
       </c>
-      <c r="F5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G5" t="s">
-        <v>76</v>
-      </c>
-      <c r="H5" t="s">
-        <v>88</v>
-      </c>
-      <c r="I5" t="s">
-        <v>93</v>
-      </c>
-      <c r="J5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K5" t="s">
-        <v>45</v>
-      </c>
-      <c r="L5" t="s">
-        <v>97</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="N5" t="s">
-        <v>97</v>
-      </c>
       <c r="O5" t="s">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="P5" t="s">
-        <v>97</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="90">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="D6">
         <v>3456787654</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
         <v>62</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H6" t="s">
-        <v>89</v>
-      </c>
-      <c r="I6" t="s">
-        <v>95</v>
-      </c>
-      <c r="J6" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6" t="s">
-        <v>46</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="M6" s="3" t="s">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="N6" t="s">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="O6" t="s">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="P6" t="s">
-        <v>97</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="D7">
         <v>9876567876</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="G7" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="H7" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="J7" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="K7" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="L7" t="s">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="N7" t="s">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="O7" t="s">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="P7" t="s">
-        <v>97</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D8">
         <v>6576545678</v>
       </c>
       <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" t="s">
         <v>55</v>
       </c>
-      <c r="F8" t="s">
-        <v>97</v>
-      </c>
-      <c r="G8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H8" t="s">
-        <v>87</v>
-      </c>
-      <c r="I8" t="s">
-        <v>93</v>
-      </c>
       <c r="J8" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="K8" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="L8" t="s">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="N8" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="O8" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="P8" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="D9">
         <v>1234565432</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="G9" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="H9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L9" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" t="s">
+        <v>83</v>
+      </c>
+      <c r="O9" t="s">
+        <v>84</v>
+      </c>
+      <c r="P9" t="s">
         <v>85</v>
       </c>
-      <c r="I9" t="s">
-        <v>94</v>
-      </c>
-      <c r="J9" t="s">
-        <v>41</v>
-      </c>
-      <c r="K9" t="s">
-        <v>49</v>
-      </c>
-      <c r="L9" t="s">
-        <v>97</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="N9" t="s">
-        <v>106</v>
-      </c>
-      <c r="O9" t="s">
-        <v>107</v>
-      </c>
-      <c r="P9" t="s">
-        <v>110</v>
-      </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="D10">
         <v>4565434345</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="F10" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G10" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="H10" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="I10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" t="s">
+        <v>90</v>
+      </c>
+      <c r="L10" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10" t="s">
+        <v>26</v>
+      </c>
+      <c r="O10" t="s">
+        <v>26</v>
+      </c>
+      <c r="P10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="90">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" t="s">
         <v>92</v>
       </c>
-      <c r="J10" t="s">
-        <v>41</v>
-      </c>
-      <c r="K10" t="s">
-        <v>50</v>
-      </c>
-      <c r="L10" t="s">
-        <v>97</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="N10" t="s">
-        <v>97</v>
-      </c>
-      <c r="O10" t="s">
-        <v>97</v>
-      </c>
-      <c r="P10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="D11">
         <v>8787656554</v>
       </c>
       <c r="E11" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G11" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="H11" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="I11" t="s">
+        <v>63</v>
+      </c>
+      <c r="J11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" t="s">
         <v>95</v>
       </c>
-      <c r="J11" t="s">
-        <v>41</v>
-      </c>
-      <c r="K11" t="s">
-        <v>51</v>
-      </c>
       <c r="L11" s="2" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="M11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11" t="s">
+        <v>26</v>
+      </c>
+      <c r="O11" t="s">
+        <v>26</v>
+      </c>
+      <c r="P11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="90">
+      <c r="A12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" t="s">
         <v>97</v>
       </c>
-      <c r="N11" t="s">
-        <v>97</v>
-      </c>
-      <c r="O11" t="s">
-        <v>97</v>
-      </c>
-      <c r="P11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="90" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="D12">
         <v>9887643678</v>
       </c>
       <c r="E12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F12" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="G12" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="H12" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="I12" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="J12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="K12" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="N12" t="s">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="O12" t="s">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="P12" t="s">
-        <v>97</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="D13">
         <v>9876565678</v>
       </c>
       <c r="E13" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F13" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="G13" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="H13" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="I13" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="J13" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="K13" t="s">
+        <v>105</v>
+      </c>
+      <c r="L13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N13" t="s">
+        <v>26</v>
+      </c>
+      <c r="O13" t="s">
+        <v>26</v>
+      </c>
+      <c r="P13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
+        <v>110</v>
+      </c>
+      <c r="G14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" t="s">
+        <v>81</v>
+      </c>
+      <c r="J14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" t="s">
+        <v>111</v>
+      </c>
+      <c r="L14" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14" t="s">
+        <v>26</v>
+      </c>
+      <c r="O14" t="s">
+        <v>26</v>
+      </c>
+      <c r="P14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15">
+        <v>9876524567</v>
+      </c>
+      <c r="E15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" t="s">
+        <v>62</v>
+      </c>
+      <c r="I15" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" t="s">
+        <v>115</v>
+      </c>
+      <c r="L15" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15" t="s">
+        <v>116</v>
+      </c>
+      <c r="O15" t="s">
+        <v>117</v>
+      </c>
+      <c r="P15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16">
+        <v>73648</v>
+      </c>
+      <c r="E16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" t="s">
         <v>53</v>
       </c>
-      <c r="L13" t="s">
-        <v>97</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="N13" t="s">
-        <v>97</v>
-      </c>
-      <c r="O13" t="s">
-        <v>97</v>
-      </c>
-      <c r="P13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14">
-        <v>9238484384</v>
-      </c>
-      <c r="E14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G14" t="s">
-        <v>65</v>
-      </c>
-      <c r="H14" t="s">
-        <v>86</v>
-      </c>
-      <c r="I14" t="s">
-        <v>94</v>
-      </c>
-      <c r="J14" t="s">
-        <v>41</v>
-      </c>
-      <c r="K14" t="s">
-        <v>90</v>
-      </c>
-      <c r="L14" t="s">
-        <v>97</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="N14" t="s">
-        <v>97</v>
-      </c>
-      <c r="O14" t="s">
-        <v>97</v>
-      </c>
-      <c r="P14" t="s">
-        <v>97</v>
+      <c r="H16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" t="s">
+        <v>34</v>
+      </c>
+      <c r="J16" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" t="s">
+        <v>122</v>
+      </c>
+      <c r="L16" t="s">
+        <v>26</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N16" t="s">
+        <v>26</v>
+      </c>
+      <c r="O16" t="s">
+        <v>26</v>
+      </c>
+      <c r="P16" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1499,6 +1638,8 @@
     <hyperlink ref="C12" r:id="rId11" xr:uid="{7D5F57EB-4EF6-45A8-B906-F7B29FEC4847}"/>
     <hyperlink ref="C13" r:id="rId12" xr:uid="{D937092F-FD8C-4CAF-B8AC-0E31B4A55DBA}"/>
     <hyperlink ref="C14" r:id="rId13" xr:uid="{9B3ED8C2-BF79-46D9-9FBA-5DB89FB696CB}"/>
+    <hyperlink ref="C15" r:id="rId14" xr:uid="{ECF082FE-DEF9-4978-915E-A5B3823F701C}"/>
+    <hyperlink ref="C16" r:id="rId15" xr:uid="{4B7F4E59-CAE2-4624-A6A1-D84F0EE82CD1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/testdata/FormTestData.xlsx
+++ b/src/test/testdata/FormTestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29113"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cognizantonline-my.sharepoint.com/personal/2406732_cognizant_com/Documents/Desktop/IdentifyCourses/IdentifyCourses/src/test/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="8_{6C8EF6D3-CF5E-4111-9DE4-392032D82EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54239893-FAC9-4730-8CCC-52802C3B69FC}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="8_{6C8EF6D3-CF5E-4111-9DE4-392032D82EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FD198B3-6E80-5013-9ED2-D11F7C807732}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{DBDA3FFA-C3DC-4AE6-AFDE-0AFF5B4BE2AC}"/>
   </bookViews>
